--- a/biology/Zoologie/Chapulín/Chapulín.xlsx
+++ b/biology/Zoologie/Chapulín/Chapulín.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chapul%C3%ADn</t>
+          <t>Chapulín</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les chapulines sont considérés comme un délice par de nombreux Mexicains. Ce sont des criquets du genre Sphenarium. Ils sont collectés seulement à certaines périodes de l'année. Ils sont consciencieusement nettoyés et lavés, puis frits avec du piment, de l'ail cultivé et du jus de citron, pour créer un goût amer-épicé-salé qui est un bon complément à la bière. On ne trouve les chapulines que dans certaines parties du Mexique, l'État et la ville d'Oaxaca de Juárez étant les plus connus. Ils sont disponibles en plusieurs tailles, petits ou gros sur les étals des marchés pour environ 3 euros le kilogramme (2007). C'est une coquette somme pour des insectes dévoreurs de récoltes. Il a été prouvé qu'ils ont été utilisés comme aliments depuis plus de 3 000 ans.
